--- a/documentation/Requerimientos/ValidacionRequisitos.xlsx
+++ b/documentation/Requerimientos/ValidacionRequisitos.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjfdlAWXSJqxD7P8Be9wuOGUUipNg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miqrkYm7g3r4nF8NlKB923B8LKOcw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="207">
   <si>
     <t>INSTRUCCIONES</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>¿Un usuario con credenciales de administrador puede iniciar sesión?</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>¿La base de datos diferencia el tipo de usuario administrador?</t>
@@ -299,6 +302,9 @@
   </si>
   <si>
     <t>¿Un ciudadano que haya inicia sesión y se encuentre viendo el historial de visitas puede filtrar por fechas o categoría del establecimiento?</t>
+  </si>
+  <si>
+    <t>No se tuvo el tiempo</t>
   </si>
   <si>
     <t>¿Un ciudadano que haya inicia sesión y se encuentre viendo el historial de visitas al aplicar un filtro el sistema muestra la información correspondiente que cumpla con dicho filtro?</t>
@@ -681,6 +687,9 @@
   <si>
     <t>¿El sistema soporta 5000 usuarios concurrentes sin tener una caída?</t>
   </si>
+  <si>
+    <t>Free tier de Amazon no soporta tantos</t>
+  </si>
 </sst>
 </file>
 
@@ -766,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -790,7 +799,6 @@
     <border>
       <left/>
       <right/>
-      <bottom/>
     </border>
     <border>
       <left/>
@@ -798,15 +806,11 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <left/>
-      <right/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -831,6 +835,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -846,15 +853,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -883,7 +881,6 @@
     <xf borderId="2" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1405,7 +1402,9 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1429,14 +1428,16 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" ht="75.0" customHeight="1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="C11" s="2">
         <v>2.0</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1460,19 +1461,21 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" ht="75.0" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>16</v>
+      <c r="A12" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>3.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1496,19 +1499,21 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" ht="75.0" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>19</v>
+      <c r="A13" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>4.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1532,14 +1537,16 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" ht="75.0" customHeight="1">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="C14" s="2">
         <v>5.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1563,19 +1570,21 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" ht="75.0" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>23</v>
+      <c r="A15" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>6.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1599,14 +1608,16 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" ht="75.0" customHeight="1">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="C16" s="2">
         <v>7.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1630,19 +1641,21 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" ht="75.0" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>27</v>
+      <c r="A17" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>8.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1666,14 +1679,16 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" ht="75.0" customHeight="1">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="C18" s="2">
         <v>9.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1697,19 +1712,21 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" ht="75.0" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>31</v>
+      <c r="A19" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>10.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1733,19 +1750,21 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" ht="75.0" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>34</v>
+      <c r="A20" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2">
         <v>11.0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1769,19 +1788,21 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" ht="75.0" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>37</v>
+      <c r="A21" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>12.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1805,19 +1826,21 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" ht="75.0" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>40</v>
+      <c r="A22" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
         <v>13.0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1841,19 +1864,21 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" ht="75.0" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>43</v>
+      <c r="A23" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2">
         <v>14.0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1877,19 +1902,21 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" ht="75.0" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>47</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="2">
         <v>15.0</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1913,15 +1940,17 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" ht="75.0" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="2">
         <v>16.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1945,19 +1974,21 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" ht="75.0" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>51</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="2">
         <v>17.0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1981,19 +2012,21 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" ht="136.5" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="16">
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2">
         <v>18.0</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2017,14 +2050,16 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" ht="136.5" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="C28" s="16">
+      <c r="A28" s="9"/>
+      <c r="C28" s="2">
         <v>19.0</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2048,19 +2083,21 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" ht="136.5" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="16">
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2">
         <v>20.0</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2084,14 +2121,16 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" ht="136.5" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="C30" s="16">
+      <c r="A30" s="9"/>
+      <c r="C30" s="2">
         <v>21.0</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2115,19 +2154,21 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" ht="136.5" customHeight="1">
-      <c r="A31" s="17" t="s">
-        <v>60</v>
+      <c r="A31" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2">
         <v>18.0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2151,19 +2192,21 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" ht="93.75" customHeight="1">
-      <c r="A32" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>64</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C32" s="2">
         <v>19.0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2187,19 +2230,21 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" ht="75.0" customHeight="1">
-      <c r="A33" s="18" t="s">
-        <v>66</v>
+      <c r="A33" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="19">
+        <v>68</v>
+      </c>
+      <c r="C33" s="17">
         <v>20.0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2223,14 +2268,16 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" ht="75.0" customHeight="1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="C34" s="2">
         <v>21.0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2254,19 +2301,21 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" ht="75.0" customHeight="1">
-      <c r="A35" s="18" t="s">
-        <v>70</v>
+      <c r="A35" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
         <v>22.0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2290,14 +2339,16 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" ht="75.0" customHeight="1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="C36" s="2">
         <v>23.0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2321,21 +2372,25 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" ht="75.0" customHeight="1">
-      <c r="A37" s="18" t="s">
-        <v>74</v>
+      <c r="A37" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2">
         <v>24.0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2357,16 +2412,20 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" ht="75.0" customHeight="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
       <c r="C38" s="2">
         <v>25.0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2388,19 +2447,21 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" ht="75.0" customHeight="1">
-      <c r="A39" s="20" t="s">
-        <v>78</v>
+      <c r="A39" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2">
         <v>26.0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2424,19 +2485,21 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" ht="75.0" customHeight="1">
-      <c r="A40" s="20" t="s">
-        <v>81</v>
+      <c r="A40" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2">
         <v>27.0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2460,19 +2523,21 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" ht="75.0" customHeight="1">
-      <c r="A41" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>85</v>
+      <c r="A41" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="C41" s="2">
         <v>28.0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2495,22 +2560,26 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" ht="75.0" customHeight="1">
-      <c r="A42" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>88</v>
+    <row r="42" ht="101.25" customHeight="1">
+      <c r="A42" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="C42" s="2">
         <v>29.0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2531,20 +2600,22 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="75.0" customHeight="1">
-      <c r="A43" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>91</v>
+    <row r="43" ht="96.75" customHeight="1">
+      <c r="A43" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C43" s="2">
         <v>30.0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2568,19 +2639,21 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" ht="75.0" customHeight="1">
-      <c r="A44" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>94</v>
+      <c r="A44" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="C44" s="2">
         <v>31.0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2603,20 +2676,22 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="75.0" customHeight="1">
-      <c r="A45" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>97</v>
+    <row r="45" ht="96.75" customHeight="1">
+      <c r="A45" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="C45" s="2">
         <v>32.0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2640,19 +2715,21 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" ht="75.0" customHeight="1">
-      <c r="A46" s="20" t="s">
-        <v>99</v>
+      <c r="A46" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2">
         <v>33.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2676,19 +2753,21 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" ht="75.0" customHeight="1">
-      <c r="A47" s="22" t="s">
-        <v>102</v>
+      <c r="A47" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2">
         <v>34.0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2712,14 +2791,16 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" ht="75.0" customHeight="1">
-      <c r="A48" s="8"/>
+      <c r="A48" s="9"/>
       <c r="C48" s="2">
         <v>35.0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2743,21 +2824,25 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" ht="75.0" customHeight="1">
-      <c r="A49" s="22" t="s">
-        <v>106</v>
+      <c r="A49" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2">
         <v>36.0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="F49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2779,16 +2864,20 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" ht="75.0" customHeight="1">
-      <c r="A50" s="8"/>
+      <c r="A50" s="9"/>
       <c r="C50" s="2">
         <v>37.0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="F50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2810,19 +2899,21 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" ht="75.0" customHeight="1">
-      <c r="A51" s="23" t="s">
-        <v>110</v>
+      <c r="A51" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2">
         <v>38.0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2846,19 +2937,21 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" ht="75.0" customHeight="1">
-      <c r="A52" s="24" t="s">
-        <v>113</v>
+      <c r="A52" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2">
         <v>39.0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2882,14 +2975,16 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" ht="75.0" customHeight="1">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
       <c r="C53" s="2">
         <v>40.0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2913,19 +3008,21 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" ht="75.0" customHeight="1">
-      <c r="A54" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>118</v>
+      <c r="A54" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="C54" s="2">
         <v>41.0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2949,19 +3046,21 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" ht="75.0" customHeight="1">
-      <c r="A55" s="24" t="s">
-        <v>120</v>
+      <c r="A55" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2">
         <v>42.0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2985,14 +3084,16 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" ht="75.0" customHeight="1">
-      <c r="A56" s="8"/>
+      <c r="A56" s="9"/>
       <c r="C56" s="2">
         <v>43.0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -3016,21 +3117,25 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" ht="75.0" customHeight="1">
-      <c r="A57" s="24" t="s">
-        <v>124</v>
+      <c r="A57" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C57" s="2">
         <v>44.0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="F57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3052,16 +3157,20 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" ht="75.0" customHeight="1">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
       <c r="C58" s="2">
         <v>45.0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="F58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3083,19 +3192,21 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" ht="75.0" customHeight="1">
-      <c r="A59" s="25" t="s">
-        <v>128</v>
+      <c r="A59" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2">
         <v>46.0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3119,14 +3230,16 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" ht="75.0" customHeight="1">
-      <c r="A60" s="8"/>
+      <c r="A60" s="9"/>
       <c r="C60" s="2">
         <v>47.0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -3150,19 +3263,21 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" ht="75.0" customHeight="1">
-      <c r="A61" s="25" t="s">
-        <v>132</v>
+      <c r="A61" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C61" s="2">
         <v>48.0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3186,14 +3301,16 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" ht="75.0" customHeight="1">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="C62" s="2">
         <v>49.0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -3217,19 +3334,21 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" ht="75.0" customHeight="1">
-      <c r="A63" s="25" t="s">
-        <v>136</v>
+      <c r="A63" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C63" s="2">
         <v>50.0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3253,14 +3372,16 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" ht="75.0" customHeight="1">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
       <c r="C64" s="2">
         <v>51.0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -3284,19 +3405,21 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" ht="75.0" customHeight="1">
-      <c r="A65" s="25" t="s">
-        <v>140</v>
+      <c r="A65" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C65" s="2">
         <v>52.0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E65" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -3320,14 +3443,16 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" ht="75.0" customHeight="1">
-      <c r="A66" s="8"/>
+      <c r="A66" s="9"/>
       <c r="C66" s="2">
         <v>53.0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -3351,19 +3476,21 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" ht="75.0" customHeight="1">
-      <c r="A67" s="25" t="s">
-        <v>144</v>
+      <c r="A67" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C67" s="2">
         <v>54.0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E67" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -3387,14 +3514,16 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" ht="75.0" customHeight="1">
-      <c r="A68" s="26"/>
+      <c r="A68" s="9"/>
       <c r="C68" s="2">
         <v>55.0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3418,14 +3547,16 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" ht="75.0" customHeight="1">
-      <c r="A69" s="8"/>
+      <c r="A69" s="9"/>
       <c r="C69" s="2">
         <v>56.0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E69" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3449,19 +3580,21 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" ht="75.0" customHeight="1">
-      <c r="A70" s="25" t="s">
-        <v>149</v>
+      <c r="A70" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C70" s="2">
         <v>57.0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E70" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3485,14 +3618,16 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" ht="75.0" customHeight="1">
-      <c r="A71" s="8"/>
+      <c r="A71" s="9"/>
       <c r="C71" s="2">
         <v>58.0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E71" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -3516,19 +3651,21 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72" ht="75.0" customHeight="1">
-      <c r="A72" s="25" t="s">
-        <v>153</v>
+      <c r="A72" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C72" s="2">
         <v>59.0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -3552,14 +3689,16 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" ht="75.0" customHeight="1">
-      <c r="A73" s="8"/>
+      <c r="A73" s="9"/>
       <c r="C73" s="2">
         <v>60.0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -3583,19 +3722,21 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" ht="75.0" customHeight="1">
-      <c r="A74" s="27" t="s">
-        <v>157</v>
+      <c r="A74" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C74" s="2">
         <v>61.0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -3619,21 +3760,25 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" ht="75.0" customHeight="1">
-      <c r="A75" s="25" t="s">
-        <v>160</v>
+      <c r="A75" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C75" s="2">
         <v>62.0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3655,16 +3800,20 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" ht="75.0" customHeight="1">
-      <c r="A76" s="8"/>
+      <c r="A76" s="9"/>
       <c r="C76" s="2">
         <v>63.0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3686,19 +3835,21 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" ht="75.0" customHeight="1">
-      <c r="A77" s="27" t="s">
-        <v>164</v>
+      <c r="A77" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C77" s="2">
         <v>64.0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -3722,21 +3873,25 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" ht="75.0" customHeight="1">
-      <c r="A78" s="25" t="s">
-        <v>167</v>
+      <c r="A78" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C78" s="2">
         <v>65.0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="F78" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3758,16 +3913,20 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" ht="75.0" customHeight="1">
-      <c r="A79" s="8"/>
+      <c r="A79" s="9"/>
       <c r="C79" s="2">
         <v>66.0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3789,19 +3948,21 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" ht="75.0" customHeight="1">
-      <c r="A80" s="27" t="s">
-        <v>171</v>
+      <c r="A80" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C80" s="2">
         <v>67.0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E80" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -3825,19 +3986,21 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" ht="75.0" customHeight="1">
-      <c r="A81" s="28" t="s">
-        <v>174</v>
+      <c r="A81" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C81" s="2">
         <v>68.0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E81" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -3861,17 +4024,17 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" ht="75.0" customHeight="1">
-      <c r="A82" s="28" t="s">
-        <v>177</v>
+      <c r="A82" s="25" t="s">
+        <v>179</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C82" s="2">
         <v>69.0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -3897,17 +4060,17 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" ht="75.0" customHeight="1">
-      <c r="A83" s="28" t="s">
-        <v>180</v>
+      <c r="A83" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C83" s="2">
         <v>70.0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -3933,19 +4096,21 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" ht="75.0" customHeight="1">
-      <c r="A84" s="28" t="s">
-        <v>183</v>
+      <c r="A84" s="25" t="s">
+        <v>185</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C84" s="2">
         <v>71.0</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E84" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -3969,19 +4134,21 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" ht="75.0" customHeight="1">
-      <c r="A85" s="28" t="s">
-        <v>186</v>
+      <c r="A85" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C85" s="2">
         <v>72.0</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E85" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -4005,19 +4172,21 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" ht="75.0" customHeight="1">
-      <c r="A86" s="28" t="s">
-        <v>189</v>
+      <c r="A86" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C86" s="2">
         <v>73.0</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E86" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -4041,19 +4210,21 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" ht="75.0" customHeight="1">
-      <c r="A87" s="28" t="s">
-        <v>192</v>
+      <c r="A87" s="25" t="s">
+        <v>194</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C87" s="2">
         <v>74.0</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E87" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -4077,17 +4248,17 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" ht="75.0" customHeight="1">
-      <c r="A88" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>196</v>
+      <c r="A88" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="C88" s="2">
         <v>75.0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4113,19 +4284,21 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" ht="75.0" customHeight="1">
-      <c r="A89" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>199</v>
+      <c r="A89" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="C89" s="2">
         <v>76.0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E89" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -4149,21 +4322,25 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" ht="75.0" customHeight="1">
-      <c r="A90" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>202</v>
+      <c r="A90" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="C90" s="2">
         <v>77.0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="F90" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -30394,15 +30571,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A13:A14"/>
@@ -30410,38 +30578,47 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A63:A64"/>
     <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
